--- a/python.xlsx
+++ b/python.xlsx
@@ -12,14 +12,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28130" windowHeight="12540"/>
   </bookViews>
   <sheets>
-    <sheet name="第1章" sheetId="1" r:id="rId1"/>
+    <sheet name="基本命令" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>⑴</t>
   </si>
@@ -55,7 +55,119 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>第1章：</t>
+    <t>[1]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>[4]</t>
+  </si>
+  <si>
+    <t>[5]</t>
+  </si>
+  <si>
+    <t>[6]</t>
+  </si>
+  <si>
+    <t>[7]</t>
+  </si>
+  <si>
+    <t>[8]</t>
+  </si>
+  <si>
+    <t>[9]</t>
+  </si>
+  <si>
+    <t>[10]</t>
+  </si>
+  <si>
+    <t>[11]</t>
+  </si>
+  <si>
+    <t>[12]</t>
+  </si>
+  <si>
+    <t>[13]</t>
+  </si>
+  <si>
+    <t>[14]</t>
+  </si>
+  <si>
+    <t>字符串.title()</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>把每个单词的首字母变成大写</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>把所有字母变成大写</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>把所有字母变成小写</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串.upper()</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>把所有字母变成小写</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串.lower()</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>把变量中的字符串拼起来</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>f"{字符串1}{字符串2}"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>f语法</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加制表符和换行符</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>\t  \n</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除字符串结尾的空格</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串.rstrip()</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除字符串开头结尾空白</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串.lstrip()</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串.strip()</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除字符串开头的空格</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -63,7 +175,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +211,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -122,7 +242,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -139,6 +259,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -445,15 +577,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE30"/>
+  <dimension ref="A1:AE39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="4.90625" style="1"/>
+    <col min="1" max="1" width="5.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="4.90625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="23" x14ac:dyDescent="0.25">
@@ -496,15 +629,47 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="23" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B4"/>
+      <c r="A4" s="1"/>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
       <c r="C4"/>
       <c r="D4"/>
       <c r="E4"/>
@@ -535,7 +700,12 @@
       <c r="AD4"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B5"/>
+      <c r="A5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5"/>
@@ -597,7 +767,12 @@
       <c r="AD6"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B7"/>
+      <c r="A7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
       <c r="C7"/>
       <c r="D7"/>
       <c r="E7"/>
@@ -628,7 +803,9 @@
       <c r="AD7"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B8"/>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8"/>
@@ -659,7 +836,12 @@
       <c r="AD8"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B9"/>
+      <c r="A9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9"/>
@@ -690,7 +872,9 @@
       <c r="AD9"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B10"/>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10"/>
@@ -721,7 +905,12 @@
       <c r="AD10"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B11"/>
+      <c r="A11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="C11"/>
       <c r="D11"/>
       <c r="E11"/>
@@ -752,7 +941,9 @@
       <c r="AD11"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B12"/>
+      <c r="B12" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12"/>
@@ -783,7 +974,9 @@
       <c r="AD12"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B13"/>
+      <c r="B13" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13"/>
@@ -814,7 +1007,12 @@
       <c r="AD13"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B14"/>
+      <c r="A14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
@@ -845,7 +1043,9 @@
       <c r="AD14"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B15"/>
+      <c r="B15" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
@@ -876,7 +1076,12 @@
       <c r="AD15"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B16"/>
+      <c r="A16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16"/>
@@ -906,9 +1111,10 @@
       <c r="AC16"/>
       <c r="AD16"/>
     </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B17"/>
-      <c r="C17"/>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17"/>
@@ -937,9 +1143,10 @@
       <c r="AC17"/>
       <c r="AD17"/>
     </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B18"/>
-      <c r="C18"/>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18"/>
@@ -968,8 +1175,10 @@
       <c r="AC18"/>
       <c r="AD18"/>
     </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B19"/>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19"/>
@@ -999,8 +1208,10 @@
       <c r="AC19"/>
       <c r="AD19"/>
     </row>
-    <row r="20" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B20"/>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
@@ -1030,8 +1241,10 @@
       <c r="AC20"/>
       <c r="AD20"/>
     </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B21"/>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21"/>
@@ -1061,8 +1274,7 @@
       <c r="AC21"/>
       <c r="AD21"/>
     </row>
-    <row r="22" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B22"/>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C22"/>
       <c r="D22"/>
       <c r="E22"/>
@@ -1092,7 +1304,7 @@
       <c r="AC22"/>
       <c r="AD22"/>
     </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
@@ -1123,7 +1335,7 @@
       <c r="AC23"/>
       <c r="AD23"/>
     </row>
-    <row r="24" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
@@ -1154,7 +1366,7 @@
       <c r="AC24"/>
       <c r="AD24"/>
     </row>
-    <row r="25" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
@@ -1185,7 +1397,7 @@
       <c r="AC25"/>
       <c r="AD25"/>
     </row>
-    <row r="26" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -1216,7 +1428,7 @@
       <c r="AC26"/>
       <c r="AD26"/>
     </row>
-    <row r="27" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
@@ -1247,7 +1459,7 @@
       <c r="AC27"/>
       <c r="AD27"/>
     </row>
-    <row r="28" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
@@ -1278,7 +1490,7 @@
       <c r="AC28"/>
       <c r="AD28"/>
     </row>
-    <row r="29" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
@@ -1309,7 +1521,7 @@
       <c r="AC29"/>
       <c r="AD29"/>
     </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -1340,6 +1552,46 @@
       <c r="AC30"/>
       <c r="AD30"/>
     </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/python.xlsx
+++ b/python.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kewei.song\Desktop\learning-text\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28130" windowHeight="12540"/>
+    <workbookView windowWidth="19815" windowHeight="7860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="基本命令" sheetId="1" r:id="rId1"/>
+    <sheet name="书签" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
+  <si>
+    <t>python</t>
+  </si>
   <si>
     <t>⑴</t>
   </si>
@@ -51,33 +50,174 @@
     <t>⑤⑥⑦⑧⑨⑩</t>
   </si>
   <si>
-    <t>python</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>[1]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>把每个单词的首字母变成大写</t>
+  </si>
+  <si>
+    <t>字符串.title()</t>
   </si>
   <si>
     <t>[2]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>把所有字母变成大写</t>
   </si>
   <si>
     <t>[3]</t>
   </si>
   <si>
+    <t>把所有字母变成小写</t>
+  </si>
+  <si>
+    <t>字符串.upper()</t>
+  </si>
+  <si>
     <t>[4]</t>
   </si>
   <si>
+    <t>字符串.lower()</t>
+  </si>
+  <si>
     <t>[5]</t>
   </si>
   <si>
+    <t>把变量中的字符串拼起来</t>
+  </si>
+  <si>
+    <t>f"{字符串1}{字符串2}"</t>
+  </si>
+  <si>
+    <t>f语法</t>
+  </si>
+  <si>
+    <t>如果把列表中的某个元素添加到字符串</t>
+  </si>
+  <si>
+    <t>把NB添加到字符串中</t>
+  </si>
+  <si>
+    <t>str = ['hello','world','skw','NB']</t>
+  </si>
+  <si>
+    <t>message = f"skw is {str[-1]}"</t>
+  </si>
+  <si>
     <t>[6]</t>
   </si>
   <si>
+    <t>添加制表符和换行符</t>
+  </si>
+  <si>
+    <t>\t  \n</t>
+  </si>
+  <si>
     <t>[7]</t>
   </si>
   <si>
+    <t>删除字符串结尾的空格</t>
+  </si>
+  <si>
+    <t>字符串.rstrip()</t>
+  </si>
+  <si>
+    <t>删除字符串开头的空格</t>
+  </si>
+  <si>
+    <t>字符串.lstrip()</t>
+  </si>
+  <si>
+    <t>删除字符串开头结尾空白</t>
+  </si>
+  <si>
+    <t>字符串.strip()</t>
+  </si>
+  <si>
+    <r>
+      <t>定义一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>列表</t>
+    </r>
+  </si>
+  <si>
+    <t>输出列表或元素</t>
+  </si>
+  <si>
+    <t>print(str)    输出的是['hello','world','skw','NB']</t>
+  </si>
+  <si>
+    <t>print(str[0])    输出的是hello</t>
+  </si>
+  <si>
+    <t>print(str[-1])    输出的是NB</t>
+  </si>
+  <si>
+    <t>修改列表中元素</t>
+  </si>
+  <si>
+    <t>把第一个元素替换成‘挼’</t>
+  </si>
+  <si>
+    <t>str[0] = '挼'</t>
+  </si>
+  <si>
+    <t>prin(str)    输出是['挼', 'world', 'skw', 'NB']</t>
+  </si>
+  <si>
+    <t>添加元素到列表的末尾</t>
+  </si>
+  <si>
+    <t>在列表的末尾再加一个元素“挼”</t>
+  </si>
+  <si>
+    <t>str.append('挼')</t>
+  </si>
+  <si>
+    <t>prin(str)    输出是['hello', 'world', 'skw', 'NB', '挼']</t>
+  </si>
+  <si>
+    <t>添加元素到列表中的任意位置</t>
+  </si>
+  <si>
+    <t>在列表的第2位添加挼，其余的依次往后移</t>
+  </si>
+  <si>
+    <t>str.insert(0,'挼')</t>
+  </si>
+  <si>
+    <t>prin(str)    输出是['hello', '挼', 'world', 'skw', 'NB']</t>
+  </si>
+  <si>
+    <t>从列表里删除元素</t>
+  </si>
+  <si>
+    <t>del str[0]</t>
+  </si>
+  <si>
+    <t>从列表里删除末尾元素，并返回删除元素的值</t>
+  </si>
+  <si>
+    <t>popped_str = str.pop(-1)</t>
+  </si>
+  <si>
+    <t>prin(str)    输出是['挼', 'world', 'skw']</t>
+  </si>
+  <si>
+    <t>prin(popped_str)    NB</t>
+  </si>
+  <si>
+    <t>从列表里根据值删除元素</t>
+  </si>
+  <si>
     <t>[8]</t>
   </si>
   <si>
@@ -97,88 +237,43 @@
   </si>
   <si>
     <t>[14]</t>
-  </si>
-  <si>
-    <t>字符串.title()</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>把每个单词的首字母变成大写</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>把所有字母变成大写</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>把所有字母变成小写</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串.upper()</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>把所有字母变成小写</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串.lower()</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>把变量中的字符串拼起来</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>f"{字符串1}{字符串2}"</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>f语法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加制表符和换行符</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>\t  \n</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除字符串结尾的空格</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串.rstrip()</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除字符串开头结尾空白</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串.lstrip()</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串.strip()</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除字符串开头的空格</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -198,16 +293,62 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -215,20 +356,282 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -236,58 +639,397 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9182100" cy="6143625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -571,70 +1313,70 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AE59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.90833333333333" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="4.90625" style="1"/>
+    <col min="1" max="1" width="5.26666666666667" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="4.90833333333333" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="23" x14ac:dyDescent="0.25">
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+    <row r="1" ht="22.5" spans="9:31">
+      <c r="I1" s="9"/>
+      <c r="J1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="10"/>
+      <c r="W1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" s="10"/>
+    </row>
+    <row r="2" spans="23:27">
+      <c r="W2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="3"/>
-      <c r="W1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE1" s="3"/>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="W2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    </row>
+    <row r="3" spans="1:30">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>26</v>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -665,10 +1407,10 @@
       <c r="AC3"/>
       <c r="AD3"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:30">
+      <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -699,12 +1441,12 @@
       <c r="AC4"/>
       <c r="AD4"/>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>12</v>
+    <row r="5" spans="1:30">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -735,7 +1477,7 @@
       <c r="AC5"/>
       <c r="AD5"/>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:30">
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
@@ -766,12 +1508,12 @@
       <c r="AC6"/>
       <c r="AD6"/>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>13</v>
+    <row r="7" spans="1:30">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -802,9 +1544,9 @@
       <c r="AC7"/>
       <c r="AD7"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:30">
       <c r="B8" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -835,12 +1577,12 @@
       <c r="AC8"/>
       <c r="AD8"/>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>14</v>
+    <row r="9" spans="1:30">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -871,9 +1613,9 @@
       <c r="AC9"/>
       <c r="AD9"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:30">
       <c r="B10" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -904,12 +1646,12 @@
       <c r="AC10"/>
       <c r="AD10"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>32</v>
+    <row r="11" spans="1:30">
+      <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -940,9 +1682,9 @@
       <c r="AC11"/>
       <c r="AD11"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
-        <v>33</v>
+    <row r="12" spans="2:30">
+      <c r="B12" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -973,9 +1715,9 @@
       <c r="AC12"/>
       <c r="AD12"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
-        <v>34</v>
+    <row r="13" spans="2:30">
+      <c r="B13" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -1006,12 +1748,9 @@
       <c r="AC13"/>
       <c r="AD13"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>35</v>
+    <row r="14" spans="2:30">
+      <c r="B14" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -1042,9 +1781,9 @@
       <c r="AC14"/>
       <c r="AD14"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
-        <v>36</v>
+    <row r="15" spans="2:30">
+      <c r="B15" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -1075,12 +1814,9 @@
       <c r="AC15"/>
       <c r="AD15"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>37</v>
+    <row r="16" spans="2:30">
+      <c r="B16" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -1111,10 +1847,11 @@
       <c r="AC16"/>
       <c r="AD16"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
-        <v>38</v>
-      </c>
+    <row r="17" spans="2:30">
+      <c r="B17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17"/>
       <c r="D17"/>
       <c r="E17"/>
       <c r="F17"/>
@@ -1143,10 +1880,14 @@
       <c r="AC17"/>
       <c r="AD17"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
-        <v>42</v>
-      </c>
+    <row r="18" spans="1:30">
+      <c r="A18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18"/>
@@ -1175,9 +1916,9 @@
       <c r="AC18"/>
       <c r="AD18"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
-        <v>40</v>
+    <row r="19" spans="2:30">
+      <c r="B19" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -1208,9 +1949,12 @@
       <c r="AC19"/>
       <c r="AD19"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
-        <v>39</v>
+    <row r="20" spans="1:30">
+      <c r="A20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -1241,11 +1985,10 @@
       <c r="AC20"/>
       <c r="AD20"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21"/>
+    <row r="21" spans="2:30">
+      <c r="B21" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
@@ -1274,8 +2017,10 @@
       <c r="AC21"/>
       <c r="AD21"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="C22"/>
+    <row r="22" spans="2:30">
+      <c r="B22" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="D22"/>
       <c r="E22"/>
       <c r="F22"/>
@@ -1304,8 +2049,10 @@
       <c r="AC22"/>
       <c r="AD22"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B23"/>
+    <row r="23" spans="2:30">
+      <c r="B23" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
@@ -1335,8 +2082,10 @@
       <c r="AC23"/>
       <c r="AD23"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B24"/>
+    <row r="24" spans="2:30">
+      <c r="B24" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
@@ -1366,8 +2115,10 @@
       <c r="AC24"/>
       <c r="AD24"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B25"/>
+    <row r="25" spans="2:30">
+      <c r="B25" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
@@ -1397,8 +2148,13 @@
       <c r="AC25"/>
       <c r="AD25"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B26"/>
+    <row r="26" spans="1:30">
+      <c r="A26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
@@ -1428,8 +2184,10 @@
       <c r="AC26"/>
       <c r="AD26"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B27"/>
+    <row r="27" spans="2:30">
+      <c r="B27" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
@@ -1459,8 +2217,10 @@
       <c r="AC27"/>
       <c r="AD27"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B28"/>
+    <row r="28" spans="2:30">
+      <c r="B28" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28"/>
@@ -1490,8 +2250,10 @@
       <c r="AC28"/>
       <c r="AD28"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B29"/>
+    <row r="29" spans="2:30">
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
@@ -1521,8 +2283,10 @@
       <c r="AC29"/>
       <c r="AD29"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B30"/>
+    <row r="30" spans="2:30">
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
@@ -1552,49 +2316,278 @@
       <c r="AC30"/>
       <c r="AD30"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>24</v>
+    <row r="31" spans="2:30">
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
+      <c r="X31"/>
+      <c r="Y31"/>
+      <c r="Z31"/>
+      <c r="AA31"/>
+      <c r="AB31"/>
+      <c r="AC31"/>
+      <c r="AD31"/>
+    </row>
+    <row r="32" spans="2:30">
+      <c r="B32" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32"/>
+      <c r="Y32"/>
+      <c r="Z32"/>
+      <c r="AA32"/>
+      <c r="AB32"/>
+      <c r="AC32"/>
+      <c r="AD32"/>
+    </row>
+    <row r="33" spans="2:30">
+      <c r="B33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33"/>
+      <c r="Y33"/>
+      <c r="Z33"/>
+      <c r="AA33"/>
+      <c r="AB33"/>
+      <c r="AC33"/>
+      <c r="AD33"/>
+    </row>
+    <row r="34" spans="2:30">
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34"/>
+      <c r="Y34"/>
+      <c r="Z34"/>
+      <c r="AA34"/>
+      <c r="AB34"/>
+      <c r="AC34"/>
+      <c r="AD34"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/python.xlsx
+++ b/python.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kewei.song\Desktop\learning-text\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19820" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="基本命令" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
   <si>
     <t>python</t>
   </si>
@@ -170,86 +175,249 @@
     <t>str[0] = '挼'</t>
   </si>
   <si>
+    <t>添加元素到列表的末尾</t>
+  </si>
+  <si>
+    <t>在列表的末尾再加一个元素“挼”</t>
+  </si>
+  <si>
+    <t>str.append('挼')</t>
+  </si>
+  <si>
+    <t>添加元素到列表中的任意位置</t>
+  </si>
+  <si>
+    <t>在列表的第2位添加挼，其余的依次往后移</t>
+  </si>
+  <si>
+    <t>str.insert(0,'挼')</t>
+  </si>
+  <si>
+    <t>从列表里删除元素</t>
+  </si>
+  <si>
+    <t>del str[0]</t>
+  </si>
+  <si>
+    <t>从列表里删除末尾元素，并返回删除元素的值</t>
+  </si>
+  <si>
+    <t>popped_str = str.pop(-1)</t>
+  </si>
+  <si>
+    <t>从列表里根据值删除元素</t>
+  </si>
+  <si>
+    <t>[8]</t>
+  </si>
+  <si>
+    <t>[9]</t>
+  </si>
+  <si>
+    <t>[10]</t>
+  </si>
+  <si>
+    <t>[11]</t>
+  </si>
+  <si>
+    <t>[12]</t>
+  </si>
+  <si>
+    <t>[13]</t>
+  </si>
+  <si>
+    <t>[14]</t>
+  </si>
+  <si>
+    <t>print(str)    输出是['挼', 'world', 'skw']</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>print(popped_str)    NB</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>print(str)    输出是['挼', 'world', 'skw', 'NB']</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>print(str)    输出是['hello', '挼', 'world', 'skw', 'NB']</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>print(str)    输出是['hello', 'world', 'skw', 'NB', '挼']</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>obj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = '挼'</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>str.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>remove(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>obj</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>prin(str)    输出是['挼', 'world', 'skw', 'NB']</t>
-  </si>
-  <si>
-    <t>添加元素到列表的末尾</t>
-  </si>
-  <si>
-    <t>在列表的末尾再加一个元素“挼”</t>
-  </si>
-  <si>
-    <t>str.append('挼')</t>
-  </si>
-  <si>
-    <t>prin(str)    输出是['hello', 'world', 'skw', 'NB', '挼']</t>
-  </si>
-  <si>
-    <t>添加元素到列表中的任意位置</t>
-  </si>
-  <si>
-    <t>在列表的第2位添加挼，其余的依次往后移</t>
-  </si>
-  <si>
-    <t>str.insert(0,'挼')</t>
-  </si>
-  <si>
-    <t>prin(str)    输出是['hello', '挼', 'world', 'skw', 'NB']</t>
-  </si>
-  <si>
-    <t>从列表里删除元素</t>
-  </si>
-  <si>
-    <t>del str[0]</t>
-  </si>
-  <si>
-    <t>从列表里删除末尾元素，并返回删除元素的值</t>
-  </si>
-  <si>
-    <t>popped_str = str.pop(-1)</t>
-  </si>
-  <si>
-    <t>prin(str)    输出是['挼', 'world', 'skw']</t>
-  </si>
-  <si>
-    <t>prin(popped_str)    NB</t>
-  </si>
-  <si>
-    <t>从列表里根据值删除元素</t>
-  </si>
-  <si>
-    <t>[8]</t>
-  </si>
-  <si>
-    <t>[9]</t>
-  </si>
-  <si>
-    <t>[10]</t>
-  </si>
-  <si>
-    <t>[11]</t>
-  </si>
-  <si>
-    <t>[12]</t>
-  </si>
-  <si>
-    <t>[13]</t>
-  </si>
-  <si>
-    <t>[14]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>print(str)    输出是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'world', 'skw', 'NB']</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>把列表永久排序和临时排序排序</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>正向永久排序str.sort()</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>反向永久排序str.sort(reverse = True)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时排序print(sorted(str))</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久反转列表顺序str.reverse()</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>求列表长度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>len(str)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>for循环</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I in str:</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>print(I)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>输出的是s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tr所有的值</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,62 +461,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -356,282 +478,20 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -639,255 +499,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -924,69 +542,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1008,7 +588,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1313,25 +893,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AE59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE73"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A59" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L65" sqref="L65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.90833333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="4.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.26666666666667" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="4.90833333333333" style="2"/>
+    <col min="1" max="1" width="5.26953125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="4.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="9:31">
+    <row r="1" spans="1:31" ht="23" x14ac:dyDescent="0.25">
       <c r="I1" s="9"/>
       <c r="J1" s="9" t="s">
         <v>0</v>
@@ -1354,7 +934,7 @@
       </c>
       <c r="AE1" s="10"/>
     </row>
-    <row r="2" spans="23:27">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="W2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1371,7 +951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -1407,7 +987,7 @@
       <c r="AC3"/>
       <c r="AD3"/>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>13</v>
@@ -1441,7 +1021,7 @@
       <c r="AC4"/>
       <c r="AD4"/>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -1477,7 +1057,7 @@
       <c r="AC5"/>
       <c r="AD5"/>
     </row>
-    <row r="6" spans="2:30">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
@@ -1508,7 +1088,7 @@
       <c r="AC6"/>
       <c r="AD6"/>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -1544,7 +1124,7 @@
       <c r="AC7"/>
       <c r="AD7"/>
     </row>
-    <row r="8" spans="2:30">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -1577,7 +1157,7 @@
       <c r="AC8"/>
       <c r="AD8"/>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -1613,7 +1193,7 @@
       <c r="AC9"/>
       <c r="AD9"/>
     </row>
-    <row r="10" spans="2:30">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>20</v>
       </c>
@@ -1646,7 +1226,7 @@
       <c r="AC10"/>
       <c r="AD10"/>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -1682,7 +1262,7 @@
       <c r="AC11"/>
       <c r="AD11"/>
     </row>
-    <row r="12" spans="2:30">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>23</v>
       </c>
@@ -1715,7 +1295,7 @@
       <c r="AC12"/>
       <c r="AD12"/>
     </row>
-    <row r="13" spans="2:30">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>24</v>
       </c>
@@ -1748,7 +1328,7 @@
       <c r="AC13"/>
       <c r="AD13"/>
     </row>
-    <row r="14" spans="2:30">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>25</v>
       </c>
@@ -1781,7 +1361,7 @@
       <c r="AC14"/>
       <c r="AD14"/>
     </row>
-    <row r="15" spans="2:30">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>26</v>
       </c>
@@ -1814,7 +1394,7 @@
       <c r="AC15"/>
       <c r="AD15"/>
     </row>
-    <row r="16" spans="2:30">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>27</v>
       </c>
@@ -1847,7 +1427,7 @@
       <c r="AC16"/>
       <c r="AD16"/>
     </row>
-    <row r="17" spans="2:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>28</v>
       </c>
@@ -1880,7 +1460,7 @@
       <c r="AC17"/>
       <c r="AD17"/>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,7 +1496,7 @@
       <c r="AC18"/>
       <c r="AD18"/>
     </row>
-    <row r="19" spans="2:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>31</v>
       </c>
@@ -1949,7 +1529,7 @@
       <c r="AC19"/>
       <c r="AD19"/>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>32</v>
       </c>
@@ -1985,7 +1565,7 @@
       <c r="AC20"/>
       <c r="AD20"/>
     </row>
-    <row r="21" spans="2:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>34</v>
       </c>
@@ -2017,7 +1597,7 @@
       <c r="AC21"/>
       <c r="AD21"/>
     </row>
-    <row r="22" spans="2:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>35</v>
       </c>
@@ -2049,7 +1629,7 @@
       <c r="AC22"/>
       <c r="AD22"/>
     </row>
-    <row r="23" spans="2:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
         <v>36</v>
       </c>
@@ -2082,7 +1662,7 @@
       <c r="AC23"/>
       <c r="AD23"/>
     </row>
-    <row r="24" spans="2:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>37</v>
       </c>
@@ -2115,7 +1695,7 @@
       <c r="AC24"/>
       <c r="AD24"/>
     </row>
-    <row r="25" spans="2:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>38</v>
       </c>
@@ -2148,7 +1728,7 @@
       <c r="AC25"/>
       <c r="AD25"/>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>32</v>
       </c>
@@ -2184,7 +1764,7 @@
       <c r="AC26"/>
       <c r="AD26"/>
     </row>
-    <row r="27" spans="2:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
@@ -2217,7 +1797,7 @@
       <c r="AC27"/>
       <c r="AD27"/>
     </row>
-    <row r="28" spans="2:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
         <v>40</v>
       </c>
@@ -2250,7 +1830,7 @@
       <c r="AC28"/>
       <c r="AD28"/>
     </row>
-    <row r="29" spans="2:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>41</v>
       </c>
@@ -2283,7 +1863,7 @@
       <c r="AC29"/>
       <c r="AD29"/>
     </row>
-    <row r="30" spans="2:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>42</v>
       </c>
@@ -2316,7 +1896,7 @@
       <c r="AC30"/>
       <c r="AD30"/>
     </row>
-    <row r="31" spans="2:30">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>43</v>
       </c>
@@ -2349,7 +1929,7 @@
       <c r="AC31"/>
       <c r="AD31"/>
     </row>
-    <row r="32" spans="2:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>44</v>
       </c>
@@ -2382,7 +1962,7 @@
       <c r="AC32"/>
       <c r="AD32"/>
     </row>
-    <row r="33" spans="2:30">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>45</v>
       </c>
@@ -2415,7 +1995,7 @@
       <c r="AC33"/>
       <c r="AD33"/>
     </row>
-    <row r="34" spans="2:30">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>46</v>
       </c>
@@ -2448,146 +2028,207 @@
       <c r="AC34"/>
       <c r="AD34"/>
     </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="2" t="s">
+    <row r="35" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B35" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="8" t="s">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="2" t="s">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="2" t="s">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B39" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B40" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="2" t="s">
+    <row r="41" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="8" t="s">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="2" t="s">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B43" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B44" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="2" t="s">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
-      <c r="B43" s="2" t="s">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B47" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="7" t="s">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="2" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="7" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" s="2" t="s">
+      <c r="B55" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="2" t="s">
+      <c r="B60" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="2" t="s">
+      <c r="B62" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C64" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B65" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="7" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="1" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="3" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/python.xlsx
+++ b/python.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="351">
   <si>
     <t>python</t>
   </si>
@@ -224,9 +224,6 @@
   </si>
   <si>
     <t>[13]</t>
-  </si>
-  <si>
-    <t>[14]</t>
   </si>
   <si>
     <t>print(str)    输出是['挼', 'world', 'skw']</t>
@@ -410,6 +407,974 @@
       </rPr>
       <t>tr所有的值</t>
     </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成一系列数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>for I in range(1,5)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>print(I)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>打印1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成列表</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>str = list(range(1,6))</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rint(str)</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>使用list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>()方法，通过range()方法生成列表</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>range</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>()可以指定步长</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>str = list(range(1,6,2))</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>输出为[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1,3,5]</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[14]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[15]</t>
+  </si>
+  <si>
+    <t>[16]</t>
+  </si>
+  <si>
+    <t>[17]</t>
+  </si>
+  <si>
+    <t>[18]</t>
+  </si>
+  <si>
+    <t>[19]</t>
+  </si>
+  <si>
+    <t>[20]</t>
+  </si>
+  <si>
+    <t>[21]</t>
+  </si>
+  <si>
+    <t>[22]</t>
+  </si>
+  <si>
+    <t>[23]</t>
+  </si>
+  <si>
+    <t>[24]</t>
+  </si>
+  <si>
+    <t>[25]</t>
+  </si>
+  <si>
+    <t>[26]</t>
+  </si>
+  <si>
+    <t>[27]</t>
+  </si>
+  <si>
+    <t>[28]</t>
+  </si>
+  <si>
+    <t>[29]</t>
+  </si>
+  <si>
+    <t>[30]</t>
+  </si>
+  <si>
+    <t>[31]</t>
+  </si>
+  <si>
+    <t>[32]</t>
+  </si>
+  <si>
+    <t>[33]</t>
+  </si>
+  <si>
+    <t>[34]</t>
+  </si>
+  <si>
+    <t>[35]</t>
+  </si>
+  <si>
+    <t>[36]</t>
+  </si>
+  <si>
+    <t>[37]</t>
+  </si>
+  <si>
+    <t>[38]</t>
+  </si>
+  <si>
+    <t>[39]</t>
+  </si>
+  <si>
+    <t>[40]</t>
+  </si>
+  <si>
+    <t>[41]</t>
+  </si>
+  <si>
+    <t>[42]</t>
+  </si>
+  <si>
+    <t>[43]</t>
+  </si>
+  <si>
+    <t>[44]</t>
+  </si>
+  <si>
+    <t>[45]</t>
+  </si>
+  <si>
+    <t>[46]</t>
+  </si>
+  <si>
+    <t>[47]</t>
+  </si>
+  <si>
+    <t>[48]</t>
+  </si>
+  <si>
+    <t>[49]</t>
+  </si>
+  <si>
+    <t>[50]</t>
+  </si>
+  <si>
+    <t>[51]</t>
+  </si>
+  <si>
+    <t>[52]</t>
+  </si>
+  <si>
+    <t>[53]</t>
+  </si>
+  <si>
+    <t>[54]</t>
+  </si>
+  <si>
+    <t>[55]</t>
+  </si>
+  <si>
+    <t>[56]</t>
+  </si>
+  <si>
+    <t>[57]</t>
+  </si>
+  <si>
+    <t>[58]</t>
+  </si>
+  <si>
+    <t>[59]</t>
+  </si>
+  <si>
+    <t>[60]</t>
+  </si>
+  <si>
+    <t>[61]</t>
+  </si>
+  <si>
+    <t>[62]</t>
+  </si>
+  <si>
+    <t>[63]</t>
+  </si>
+  <si>
+    <t>[64]</t>
+  </si>
+  <si>
+    <t>[65]</t>
+  </si>
+  <si>
+    <t>[66]</t>
+  </si>
+  <si>
+    <t>[67]</t>
+  </si>
+  <si>
+    <t>[68]</t>
+  </si>
+  <si>
+    <t>[69]</t>
+  </si>
+  <si>
+    <t>[70]</t>
+  </si>
+  <si>
+    <t>[71]</t>
+  </si>
+  <si>
+    <t>[72]</t>
+  </si>
+  <si>
+    <t>[73]</t>
+  </si>
+  <si>
+    <t>[74]</t>
+  </si>
+  <si>
+    <t>[75]</t>
+  </si>
+  <si>
+    <t>[76]</t>
+  </si>
+  <si>
+    <t>[77]</t>
+  </si>
+  <si>
+    <t>[78]</t>
+  </si>
+  <si>
+    <t>[79]</t>
+  </si>
+  <si>
+    <t>[80]</t>
+  </si>
+  <si>
+    <t>[81]</t>
+  </si>
+  <si>
+    <t>[82]</t>
+  </si>
+  <si>
+    <t>[83]</t>
+  </si>
+  <si>
+    <t>[84]</t>
+  </si>
+  <si>
+    <t>[85]</t>
+  </si>
+  <si>
+    <t>[86]</t>
+  </si>
+  <si>
+    <t>[87]</t>
+  </si>
+  <si>
+    <t>[88]</t>
+  </si>
+  <si>
+    <t>[89]</t>
+  </si>
+  <si>
+    <t>[90]</t>
+  </si>
+  <si>
+    <t>[91]</t>
+  </si>
+  <si>
+    <t>[92]</t>
+  </si>
+  <si>
+    <t>[93]</t>
+  </si>
+  <si>
+    <t>[94]</t>
+  </si>
+  <si>
+    <t>[95]</t>
+  </si>
+  <si>
+    <t>[96]</t>
+  </si>
+  <si>
+    <t>[97]</t>
+  </si>
+  <si>
+    <t>[98]</t>
+  </si>
+  <si>
+    <t>[99]</t>
+  </si>
+  <si>
+    <t>[100]</t>
+  </si>
+  <si>
+    <t>[101]</t>
+  </si>
+  <si>
+    <t>[102]</t>
+  </si>
+  <si>
+    <t>[103]</t>
+  </si>
+  <si>
+    <t>[104]</t>
+  </si>
+  <si>
+    <t>[105]</t>
+  </si>
+  <si>
+    <t>[106]</t>
+  </si>
+  <si>
+    <t>[107]</t>
+  </si>
+  <si>
+    <t>[108]</t>
+  </si>
+  <si>
+    <t>[109]</t>
+  </si>
+  <si>
+    <t>[110]</t>
+  </si>
+  <si>
+    <t>[111]</t>
+  </si>
+  <si>
+    <t>[112]</t>
+  </si>
+  <si>
+    <t>[113]</t>
+  </si>
+  <si>
+    <t>[114]</t>
+  </si>
+  <si>
+    <t>[115]</t>
+  </si>
+  <si>
+    <t>[116]</t>
+  </si>
+  <si>
+    <t>[117]</t>
+  </si>
+  <si>
+    <t>[118]</t>
+  </si>
+  <si>
+    <t>[119]</t>
+  </si>
+  <si>
+    <t>[120]</t>
+  </si>
+  <si>
+    <t>[121]</t>
+  </si>
+  <si>
+    <t>[122]</t>
+  </si>
+  <si>
+    <t>[123]</t>
+  </si>
+  <si>
+    <t>[124]</t>
+  </si>
+  <si>
+    <t>[125]</t>
+  </si>
+  <si>
+    <t>[126]</t>
+  </si>
+  <si>
+    <t>[127]</t>
+  </si>
+  <si>
+    <t>[128]</t>
+  </si>
+  <si>
+    <t>[129]</t>
+  </si>
+  <si>
+    <t>[130]</t>
+  </si>
+  <si>
+    <t>[131]</t>
+  </si>
+  <si>
+    <t>[132]</t>
+  </si>
+  <si>
+    <t>[133]</t>
+  </si>
+  <si>
+    <t>[134]</t>
+  </si>
+  <si>
+    <t>[135]</t>
+  </si>
+  <si>
+    <t>[136]</t>
+  </si>
+  <si>
+    <t>[137]</t>
+  </si>
+  <si>
+    <t>[138]</t>
+  </si>
+  <si>
+    <t>[139]</t>
+  </si>
+  <si>
+    <t>[140]</t>
+  </si>
+  <si>
+    <t>[141]</t>
+  </si>
+  <si>
+    <t>[142]</t>
+  </si>
+  <si>
+    <t>[143]</t>
+  </si>
+  <si>
+    <t>[144]</t>
+  </si>
+  <si>
+    <t>[145]</t>
+  </si>
+  <si>
+    <t>[146]</t>
+  </si>
+  <si>
+    <t>[147]</t>
+  </si>
+  <si>
+    <t>[148]</t>
+  </si>
+  <si>
+    <t>[149]</t>
+  </si>
+  <si>
+    <t>[150]</t>
+  </si>
+  <si>
+    <t>[151]</t>
+  </si>
+  <si>
+    <t>[152]</t>
+  </si>
+  <si>
+    <t>[153]</t>
+  </si>
+  <si>
+    <t>[154]</t>
+  </si>
+  <si>
+    <t>[155]</t>
+  </si>
+  <si>
+    <t>[156]</t>
+  </si>
+  <si>
+    <t>[157]</t>
+  </si>
+  <si>
+    <t>[158]</t>
+  </si>
+  <si>
+    <t>[159]</t>
+  </si>
+  <si>
+    <t>[160]</t>
+  </si>
+  <si>
+    <t>[161]</t>
+  </si>
+  <si>
+    <t>[162]</t>
+  </si>
+  <si>
+    <t>[163]</t>
+  </si>
+  <si>
+    <t>[164]</t>
+  </si>
+  <si>
+    <t>[165]</t>
+  </si>
+  <si>
+    <t>[166]</t>
+  </si>
+  <si>
+    <t>[167]</t>
+  </si>
+  <si>
+    <t>[168]</t>
+  </si>
+  <si>
+    <t>[169]</t>
+  </si>
+  <si>
+    <t>[170]</t>
+  </si>
+  <si>
+    <t>[171]</t>
+  </si>
+  <si>
+    <t>[172]</t>
+  </si>
+  <si>
+    <t>[173]</t>
+  </si>
+  <si>
+    <t>[174]</t>
+  </si>
+  <si>
+    <t>[175]</t>
+  </si>
+  <si>
+    <t>[176]</t>
+  </si>
+  <si>
+    <t>[177]</t>
+  </si>
+  <si>
+    <t>[178]</t>
+  </si>
+  <si>
+    <t>[179]</t>
+  </si>
+  <si>
+    <t>[180]</t>
+  </si>
+  <si>
+    <t>[181]</t>
+  </si>
+  <si>
+    <t>[182]</t>
+  </si>
+  <si>
+    <t>[183]</t>
+  </si>
+  <si>
+    <t>[184]</t>
+  </si>
+  <si>
+    <t>[185]</t>
+  </si>
+  <si>
+    <t>[186]</t>
+  </si>
+  <si>
+    <t>[187]</t>
+  </si>
+  <si>
+    <t>[188]</t>
+  </si>
+  <si>
+    <t>[189]</t>
+  </si>
+  <si>
+    <t>[190]</t>
+  </si>
+  <si>
+    <t>[191]</t>
+  </si>
+  <si>
+    <t>[192]</t>
+  </si>
+  <si>
+    <t>[193]</t>
+  </si>
+  <si>
+    <t>[194]</t>
+  </si>
+  <si>
+    <t>[195]</t>
+  </si>
+  <si>
+    <t>[196]</t>
+  </si>
+  <si>
+    <t>[197]</t>
+  </si>
+  <si>
+    <t>[198]</t>
+  </si>
+  <si>
+    <t>[199]</t>
+  </si>
+  <si>
+    <t>[200]</t>
+  </si>
+  <si>
+    <t>[201]</t>
+  </si>
+  <si>
+    <t>[202]</t>
+  </si>
+  <si>
+    <t>[203]</t>
+  </si>
+  <si>
+    <t>[204]</t>
+  </si>
+  <si>
+    <t>[205]</t>
+  </si>
+  <si>
+    <t>[206]</t>
+  </si>
+  <si>
+    <t>[207]</t>
+  </si>
+  <si>
+    <t>[208]</t>
+  </si>
+  <si>
+    <t>[209]</t>
+  </si>
+  <si>
+    <t>[210]</t>
+  </si>
+  <si>
+    <t>[211]</t>
+  </si>
+  <si>
+    <t>[212]</t>
+  </si>
+  <si>
+    <t>[213]</t>
+  </si>
+  <si>
+    <t>[214]</t>
+  </si>
+  <si>
+    <t>[215]</t>
+  </si>
+  <si>
+    <t>[216]</t>
+  </si>
+  <si>
+    <t>求数据的最小值，最大值，和</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>min(str)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>max(str)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum(str)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>也可以这样创建列表str = [i for i in range(1,11)]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建切片</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得str的前三个元素    str = str[0:3]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>if语句</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>else:</t>
+  </si>
+  <si>
+    <t>if 条件:</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>语句</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>与或操作</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>与：（条件1）and（条件二）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>或：（条件1）or（条件二）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>elif</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 条件:</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>语句</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断列表是否为空</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>if 列表名字：</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断字符串2中的元素是否在字符串1中</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>if 字符串2 in 字符串1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>语句</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六章</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>这么定义    str = {'color':'green','point':'5'}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">这么输出 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   print(str['point'])</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>给字典添加键值对</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>str['x'] = 14</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>str['y'] = 38</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>给str字典添加x：14，y：38</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除字典中的键值对</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>del str['color']</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>str_tmp = str.get('color','没有')</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果有color就把color的值给str_tmp，没有color就打印'没有'</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>for key,value in str.items():</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印值print(value)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印键：print(key)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>items()方法遍历字典，遍历所有的键和值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>get()方法，查看字典中有没有想要的键</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>keys()方法遍历字典，只便利键，不遍历值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>for key in str.keys():</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>print(key)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>values()方法遍历字典，只遍历值，不遍历键</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>实际上keys</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>()方法返回的是所有键组成的列表</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际上values()方法返回的是所有值组成的列表</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sorted()方法把字典按顺序输出</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>把键排序输出</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>把值排序输出</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>print(a)</t>
+  </si>
+  <si>
+    <t>print(a)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>for a in sorted(str.keys()):</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>for a in sorted(str.values()):</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>set()方法把字典中的值的重复项剔除</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>for a in set(str.values()):</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -505,7 +1470,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -548,6 +1513,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -563,53 +1531,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9182100" cy="6143625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -899,10 +1820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE73"/>
+  <dimension ref="A1:AE500"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A59" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L65" sqref="L65"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A121" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E132" sqref="E132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.90625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2030,7 +2951,7 @@
     </row>
     <row r="35" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="2:30" x14ac:dyDescent="0.25">
@@ -2050,7 +2971,7 @@
     </row>
     <row r="39" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="2:30" x14ac:dyDescent="0.25">
@@ -2070,7 +2991,7 @@
     </row>
     <row r="43" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="2:30" x14ac:dyDescent="0.25">
@@ -2085,7 +3006,7 @@
     </row>
     <row r="46" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="2:30" x14ac:dyDescent="0.25">
@@ -2100,12 +3021,12 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -2115,17 +3036,17 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B53" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -2133,27 +3054,27 @@
         <v>58</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B59" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -2161,12 +3082,12 @@
         <v>59</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -2174,42 +3095,1348 @@
         <v>60</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B63" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C64" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="12" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="12" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B66" s="13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B67" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B68" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C69" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
+      <c r="B70" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B71" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B72" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B73" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B74" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B75" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B76" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B77" s="12" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>64</v>
+      <c r="B78" s="13" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B79" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B80" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B81" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B83" s="12" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B85" s="12" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C86" s="12" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B87" s="12" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C88" s="12" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B89" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C90" s="12" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B91" s="13" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B92" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C93" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B94" s="13" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B95" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C96" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" s="13" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B98" s="12" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B99" s="12" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B101" s="12" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B102" s="12" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B104" s="12" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B105" s="12" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B106" s="12" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B108" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B109" s="13" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B110" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B111" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B112" s="13" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B113" s="12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B114" s="12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B115" s="12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B116" s="13" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B117" s="12" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C118" s="12" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B119" s="12" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B120" s="13" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B121" s="12" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B122" s="13" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B123" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F124" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B125" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F126" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B127" s="13" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B128" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B129" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" s="1" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -2221,14 +4448,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>319</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>